--- a/Code/Results/Cases/Case_4_122/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_122/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.60666957271957</v>
+        <v>17.29248327091868</v>
       </c>
       <c r="C2">
-        <v>19.31831670702235</v>
+        <v>12.58150029580305</v>
       </c>
       <c r="D2">
-        <v>12.20653196935784</v>
+        <v>14.94586618187336</v>
       </c>
       <c r="E2">
-        <v>13.20360653316356</v>
+        <v>16.35877698076819</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.07661275678936</v>
+        <v>3.657733676325439</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>12.52427074190181</v>
+        <v>21.98034412123139</v>
       </c>
       <c r="J2">
-        <v>5.861733342035209</v>
+        <v>9.335429618785826</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>17.17448619219781</v>
+        <v>25.71922603586754</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.94457784681008</v>
+        <v>16.62660755172334</v>
       </c>
       <c r="C3">
-        <v>18.00780383783707</v>
+        <v>12.00174920082771</v>
       </c>
       <c r="D3">
-        <v>11.67945851793141</v>
+        <v>14.88487520926003</v>
       </c>
       <c r="E3">
-        <v>12.64342799461186</v>
+        <v>16.29818104252226</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.084217034880795</v>
+        <v>3.660509764940644</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>12.85471425486631</v>
+        <v>22.14816042057675</v>
       </c>
       <c r="J3">
-        <v>5.768105409478332</v>
+        <v>9.344455397663488</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>16.97367583268278</v>
+        <v>25.82305430162294</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.86487047768151</v>
+        <v>16.20505375414281</v>
       </c>
       <c r="C4">
-        <v>17.1568821743869</v>
+        <v>11.6317947390259</v>
       </c>
       <c r="D4">
-        <v>11.35319873076187</v>
+        <v>14.85084665927451</v>
       </c>
       <c r="E4">
-        <v>12.29738534947514</v>
+        <v>16.26475057894311</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.089007800385565</v>
+        <v>3.662302824207698</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>13.07718648385956</v>
+        <v>22.25758186391933</v>
       </c>
       <c r="J4">
-        <v>5.713538470834874</v>
+        <v>9.351474296167506</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>16.87661208582604</v>
+        <v>25.89504089683061</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.40988454714789</v>
+        <v>16.03031354382879</v>
       </c>
       <c r="C5">
-        <v>16.79839327231551</v>
+        <v>11.4777051916604</v>
       </c>
       <c r="D5">
-        <v>11.21975099944493</v>
+        <v>14.83784945556937</v>
       </c>
       <c r="E5">
-        <v>12.15602046729837</v>
+        <v>16.25208590574393</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.090992008964042</v>
+        <v>3.66305584955458</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>13.17240061260889</v>
+        <v>22.30377384070133</v>
       </c>
       <c r="J5">
-        <v>5.692034069470652</v>
+        <v>9.354705900255068</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>16.84338222976245</v>
+        <v>25.92643493325519</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.3334254189439</v>
+        <v>16.00112724436167</v>
       </c>
       <c r="C6">
-        <v>16.73815509563562</v>
+        <v>11.45192361437634</v>
       </c>
       <c r="D6">
-        <v>11.19756762283619</v>
+        <v>14.83574406851017</v>
       </c>
       <c r="E6">
-        <v>12.13253141631847</v>
+        <v>16.25004108027465</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.091323451249621</v>
+        <v>3.663182240349971</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>13.18847604283357</v>
+        <v>22.31154065136106</v>
       </c>
       <c r="J6">
-        <v>5.688507406852442</v>
+        <v>9.355264930558228</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>16.83823806196941</v>
+        <v>25.93177188520325</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.85879524916638</v>
+        <v>16.20270876755367</v>
       </c>
       <c r="C7">
-        <v>17.15209509605422</v>
+        <v>11.62972984986021</v>
       </c>
       <c r="D7">
-        <v>11.35140076970611</v>
+        <v>14.85066784108841</v>
       </c>
       <c r="E7">
-        <v>12.29548001923684</v>
+        <v>16.26457588663441</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.08903442912362</v>
+        <v>3.662312889218045</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>13.07845258600241</v>
+        <v>22.25819834295054</v>
       </c>
       <c r="J7">
-        <v>5.713245494662638</v>
+        <v>9.351516375294519</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>16.87613870382059</v>
+        <v>25.89545596751487</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.04579113200858</v>
+        <v>17.06566204763628</v>
       </c>
       <c r="C8">
-        <v>18.87599292036431</v>
+        <v>12.384608155216</v>
       </c>
       <c r="D8">
-        <v>12.02543742426643</v>
+        <v>14.92413278850119</v>
       </c>
       <c r="E8">
-        <v>13.01098899839304</v>
+        <v>16.33710566192127</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.079210277853359</v>
+        <v>3.658672544189854</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>12.63390791387142</v>
+        <v>22.03688093776935</v>
       </c>
       <c r="J8">
-        <v>5.828842892064049</v>
+        <v>9.338235130193183</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>17.0996443237727</v>
+        <v>25.75330960409177</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.87041323425818</v>
+        <v>18.64787639085223</v>
       </c>
       <c r="C9">
-        <v>21.89413124154987</v>
+        <v>13.747094482816</v>
       </c>
       <c r="D9">
-        <v>13.32020048172827</v>
+        <v>15.09485854075092</v>
       </c>
       <c r="E9">
-        <v>14.39109218326585</v>
+        <v>16.50884262694824</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.060846089954561</v>
+        <v>3.652232734856398</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>11.93666621406569</v>
+        <v>21.65364489963336</v>
       </c>
       <c r="J9">
-        <v>6.078810526543549</v>
+        <v>9.323911158013463</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>17.757150578086</v>
+        <v>25.54042825810741</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.40541094143787</v>
+        <v>19.73261872113134</v>
       </c>
       <c r="C10">
-        <v>23.89738922449498</v>
+        <v>14.66871907678343</v>
       </c>
       <c r="D10">
-        <v>14.24868203130626</v>
+        <v>15.23583597741123</v>
       </c>
       <c r="E10">
-        <v>15.38440999135268</v>
+        <v>16.65232616735073</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.04780503485394</v>
+        <v>3.6479225021898</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>11.56153764279302</v>
+        <v>21.40321890588839</v>
       </c>
       <c r="J10">
-        <v>6.276851710900759</v>
+        <v>9.320530652873002</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>18.38737861295636</v>
+        <v>25.42486783426689</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.50079383854302</v>
+        <v>20.20742692627833</v>
       </c>
       <c r="C11">
-        <v>24.76380199656539</v>
+        <v>15.06955078148175</v>
       </c>
       <c r="D11">
-        <v>14.66532570330945</v>
+        <v>15.303174031553</v>
       </c>
       <c r="E11">
-        <v>15.83098195656611</v>
+        <v>16.72119179026204</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.041946135404694</v>
+        <v>3.646052042221716</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>11.4286740408357</v>
+        <v>21.29610008805856</v>
       </c>
       <c r="J11">
-        <v>6.370139338305234</v>
+        <v>9.320541819913313</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>18.70852416218015</v>
+        <v>25.38130392910395</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.90743643558785</v>
+        <v>20.38441982884556</v>
       </c>
       <c r="C12">
-        <v>25.08557540765891</v>
+        <v>15.21860808323015</v>
       </c>
       <c r="D12">
-        <v>14.82224140255608</v>
+        <v>15.32911841946641</v>
       </c>
       <c r="E12">
-        <v>15.9992931564046</v>
+        <v>16.74777060096919</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.039735878130961</v>
+        <v>3.645356649912709</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>11.38455383252114</v>
+        <v>21.25651936309073</v>
       </c>
       <c r="J12">
-        <v>6.405933020195636</v>
+        <v>9.320768430829936</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>18.83527014858345</v>
+        <v>25.36611297818122</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.82021877711754</v>
+        <v>20.34642787758637</v>
       </c>
       <c r="C13">
-        <v>25.01655449739487</v>
+        <v>15.18662842928906</v>
       </c>
       <c r="D13">
-        <v>14.7884852463026</v>
+        <v>15.3235113094289</v>
       </c>
       <c r="E13">
-        <v>15.96307998076812</v>
+        <v>16.74202436465605</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.040211561135473</v>
+        <v>3.645505842054813</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>11.39376769028689</v>
+        <v>21.26499998807578</v>
       </c>
       <c r="J13">
-        <v>6.398203249906845</v>
+        <v>9.320709742324722</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>18.80774195236367</v>
+        <v>25.36932638085261</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.53441107822658</v>
+        <v>20.22204514420692</v>
       </c>
       <c r="C14">
-        <v>24.79040030798124</v>
+        <v>15.08186891844127</v>
       </c>
       <c r="D14">
-        <v>14.67825255925103</v>
+        <v>15.30529967056125</v>
       </c>
       <c r="E14">
-        <v>15.8448450707705</v>
+        <v>16.72336850091619</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.041764141593534</v>
+        <v>3.645994573552299</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>11.42491554962679</v>
+        <v>21.29282403160899</v>
       </c>
       <c r="J14">
-        <v>6.373074676427465</v>
+        <v>9.320556008850014</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>18.71884770870471</v>
+        <v>25.38002793108107</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.35828838755806</v>
+        <v>20.14548819894413</v>
       </c>
       <c r="C15">
-        <v>24.65105568448574</v>
+        <v>15.01734315707313</v>
       </c>
       <c r="D15">
-        <v>14.61061950086582</v>
+        <v>15.29420196424681</v>
       </c>
       <c r="E15">
-        <v>15.77231857046903</v>
+        <v>16.71200598805225</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.042716164544948</v>
+        <v>3.646295614852886</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>11.44482464120172</v>
+        <v>21.30999520553107</v>
       </c>
       <c r="J15">
-        <v>6.357743893665129</v>
+        <v>9.320490791125916</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>18.66507138492571</v>
+        <v>25.38675329947175</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.33267515340722</v>
+        <v>19.70120255456836</v>
       </c>
       <c r="C16">
-        <v>23.83987537830259</v>
+        <v>14.6421459488416</v>
       </c>
       <c r="D16">
-        <v>14.22133459247456</v>
+        <v>15.23149843905149</v>
       </c>
       <c r="E16">
-        <v>15.35511533999478</v>
+        <v>16.64789661928995</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.04818922483694</v>
+        <v>3.648046551709779</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>11.57104420420956</v>
+        <v>21.41035663805035</v>
       </c>
       <c r="J16">
-        <v>6.270820091838278</v>
+        <v>9.320561063935182</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>18.36709994898792</v>
+        <v>25.42789698195424</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.68879886453918</v>
+        <v>19.42377701338887</v>
       </c>
       <c r="C17">
-        <v>23.33084123153971</v>
+        <v>14.40719522770491</v>
       </c>
       <c r="D17">
-        <v>13.98102122711969</v>
+        <v>15.19384191665813</v>
       </c>
       <c r="E17">
-        <v>15.09778534942686</v>
+        <v>16.60947711049441</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.051564110872051</v>
+        <v>3.649143767365882</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>11.65867110253526</v>
+        <v>21.47367044073223</v>
       </c>
       <c r="J17">
-        <v>6.218318801715276</v>
+        <v>9.32100067870169</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>18.19326013776956</v>
+        <v>25.45545160005907</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.31300789248952</v>
+        <v>19.26246037351056</v>
       </c>
       <c r="C18">
-        <v>23.03382537880326</v>
+        <v>14.27032784026053</v>
       </c>
       <c r="D18">
-        <v>13.8422607050244</v>
+        <v>15.17248573603653</v>
       </c>
       <c r="E18">
-        <v>14.94927803103945</v>
+        <v>16.58771854743078</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.053512321588903</v>
+        <v>3.649783359305808</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>11.71257825602638</v>
+        <v>21.51072672251081</v>
       </c>
       <c r="J18">
-        <v>6.188421799122561</v>
+        <v>9.321399357837509</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>18.09650485761984</v>
+        <v>25.47214727632486</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.18483081449012</v>
+        <v>19.20754508307496</v>
       </c>
       <c r="C19">
-        <v>22.93252994224691</v>
+        <v>14.22369245036669</v>
       </c>
       <c r="D19">
-        <v>13.7951877421243</v>
+        <v>15.16530739566928</v>
       </c>
       <c r="E19">
-        <v>14.89891200356708</v>
+        <v>16.58041022184942</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.054173229194681</v>
+        <v>3.65000137668833</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>11.73141055269134</v>
+        <v>21.5233830959201</v>
       </c>
       <c r="J19">
-        <v>6.178350583600473</v>
+        <v>9.321559398599671</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>18.06429473234904</v>
+        <v>25.47794527784745</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.75790358432637</v>
+        <v>19.45349139452215</v>
       </c>
       <c r="C20">
-        <v>23.38546592147987</v>
+        <v>14.43238580130261</v>
       </c>
       <c r="D20">
-        <v>14.00665907384081</v>
+        <v>15.19781928808166</v>
       </c>
       <c r="E20">
-        <v>15.12523043895002</v>
+        <v>16.61353192690682</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.051204132452543</v>
+        <v>3.649026087436216</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>11.64897488554446</v>
+        <v>21.46686432126664</v>
       </c>
       <c r="J20">
-        <v>6.223876521542</v>
+        <v>9.320938790981764</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>18.21142976017296</v>
+        <v>25.45243062350667</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.61857975778033</v>
+        <v>20.25865645206681</v>
       </c>
       <c r="C21">
-        <v>24.85699762666499</v>
+        <v>15.11271396050524</v>
       </c>
       <c r="D21">
-        <v>14.71065401182365</v>
+        <v>15.31063692818762</v>
       </c>
       <c r="E21">
-        <v>15.87959526845894</v>
+        <v>16.72883471778551</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.041307902201026</v>
+        <v>3.645850671461165</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>11.41559222093148</v>
+        <v>21.28462472147218</v>
       </c>
       <c r="J21">
-        <v>6.380442776064989</v>
+        <v>9.32059513203666</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>18.7448173368189</v>
+        <v>25.37684910496658</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.78718503375453</v>
+        <v>20.76847282771688</v>
       </c>
       <c r="C22">
-        <v>25.78197067321279</v>
+        <v>15.54141335503414</v>
       </c>
       <c r="D22">
-        <v>15.16575521783305</v>
+        <v>15.38695509614587</v>
       </c>
       <c r="E22">
-        <v>16.36798093309173</v>
+        <v>16.80710333544812</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.034887812233824</v>
+        <v>3.643850571094881</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>11.29955599554541</v>
+        <v>21.17125182951938</v>
       </c>
       <c r="J22">
-        <v>6.485500032276605</v>
+        <v>9.321666511332786</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>19.12342781405934</v>
+        <v>25.33506777982641</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.16776604258582</v>
+        <v>20.49791230609589</v>
       </c>
       <c r="C23">
-        <v>25.29161125045207</v>
+        <v>15.31408944316744</v>
       </c>
       <c r="D23">
-        <v>14.92332143484385</v>
+        <v>15.34599165122158</v>
       </c>
       <c r="E23">
-        <v>16.10774864343482</v>
+        <v>16.76506898939043</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.038310756905355</v>
+        <v>3.644911203841045</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>11.35787950271327</v>
+        <v>21.23123499917247</v>
       </c>
       <c r="J23">
-        <v>6.429175521471106</v>
+        <v>9.320976256738726</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>18.91855237116</v>
+        <v>25.35666699988249</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.72667885077438</v>
+        <v>19.44006318512315</v>
       </c>
       <c r="C24">
-        <v>23.36078370633092</v>
+        <v>14.42100271568232</v>
       </c>
       <c r="D24">
-        <v>13.99507007289403</v>
+        <v>15.19602020441381</v>
       </c>
       <c r="E24">
-        <v>15.11282427046357</v>
+        <v>16.61169771741536</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.051366853789837</v>
+        <v>3.649079263151175</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>11.65334760899637</v>
+        <v>21.46993932365767</v>
       </c>
       <c r="J24">
-        <v>6.221362983983917</v>
+        <v>9.320966315804375</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>18.20320535916422</v>
+        <v>25.45379374704147</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.8846352503408</v>
+        <v>18.23281359871381</v>
       </c>
       <c r="C25">
-        <v>21.11576618915061</v>
+        <v>13.39198239576831</v>
       </c>
       <c r="D25">
-        <v>12.97357490462781</v>
+        <v>15.04588743553761</v>
       </c>
       <c r="E25">
-        <v>14.02098759791484</v>
+        <v>16.45929013211867</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.065727270404916</v>
+        <v>3.653900567625417</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>12.10367956906986</v>
+        <v>21.75186686599839</v>
       </c>
       <c r="J25">
-        <v>6.008677549964271</v>
+        <v>9.326531251081432</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>17.55433189943313</v>
+        <v>25.59089396394387</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_122/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_122/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.29248327091868</v>
+        <v>24.60666957271959</v>
       </c>
       <c r="C2">
-        <v>12.58150029580305</v>
+        <v>19.3183167070223</v>
       </c>
       <c r="D2">
-        <v>14.94586618187336</v>
+        <v>12.20653196935793</v>
       </c>
       <c r="E2">
-        <v>16.35877698076819</v>
+        <v>13.20360653316359</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.657733676325439</v>
+        <v>2.076612756789091</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>21.98034412123139</v>
+        <v>12.52427074190191</v>
       </c>
       <c r="J2">
-        <v>9.335429618785826</v>
+        <v>5.861733342035156</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>25.71922603586754</v>
+        <v>17.17448619219795</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.62660755172334</v>
+        <v>22.94457784681011</v>
       </c>
       <c r="C3">
-        <v>12.00174920082771</v>
+        <v>18.00780383783711</v>
       </c>
       <c r="D3">
-        <v>14.88487520926003</v>
+        <v>11.67945851793136</v>
       </c>
       <c r="E3">
-        <v>16.29818104252226</v>
+        <v>12.64342799461189</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.660509764940644</v>
+        <v>2.084217034880927</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>22.14816042057675</v>
+        <v>12.85471425486627</v>
       </c>
       <c r="J3">
-        <v>9.344455397663488</v>
+        <v>5.768105409478386</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>25.82305430162294</v>
+        <v>16.97367583268273</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.20505375414281</v>
+        <v>21.86487047768152</v>
       </c>
       <c r="C4">
-        <v>11.6317947390259</v>
+        <v>17.1568821743869</v>
       </c>
       <c r="D4">
-        <v>14.85084665927451</v>
+        <v>11.35319873076188</v>
       </c>
       <c r="E4">
-        <v>16.26475057894311</v>
+        <v>12.29738534947521</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.662302824207698</v>
+        <v>2.089007800385297</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>22.25758186391933</v>
+        <v>13.07718648385953</v>
       </c>
       <c r="J4">
-        <v>9.351474296167506</v>
+        <v>5.713538470834922</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>25.89504089683061</v>
+        <v>16.87661208582604</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.03031354382879</v>
+        <v>21.40988454714789</v>
       </c>
       <c r="C5">
-        <v>11.4777051916604</v>
+        <v>16.79839327231552</v>
       </c>
       <c r="D5">
-        <v>14.83784945556937</v>
+        <v>11.21975099944496</v>
       </c>
       <c r="E5">
-        <v>16.25208590574393</v>
+        <v>12.15602046729839</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.66305584955458</v>
+        <v>2.090992008964176</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>22.30377384070133</v>
+        <v>13.17240061260903</v>
       </c>
       <c r="J5">
-        <v>9.354705900255068</v>
+        <v>5.692034069470652</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>25.92643493325519</v>
+        <v>16.84338222976253</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.00112724436167</v>
+        <v>21.33342541894385</v>
       </c>
       <c r="C6">
-        <v>11.45192361437634</v>
+        <v>16.7381550956356</v>
       </c>
       <c r="D6">
-        <v>14.83574406851017</v>
+        <v>11.19756762283622</v>
       </c>
       <c r="E6">
-        <v>16.25004108027465</v>
+        <v>12.13253141631849</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.663182240349971</v>
+        <v>2.091323451249487</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>22.31154065136106</v>
+        <v>13.18847604283378</v>
       </c>
       <c r="J6">
-        <v>9.355264930558228</v>
+        <v>5.688507406852365</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>25.93177188520325</v>
+        <v>16.8382380619696</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.20270876755367</v>
+        <v>21.85879524916639</v>
       </c>
       <c r="C7">
-        <v>11.62972984986021</v>
+        <v>17.15209509605406</v>
       </c>
       <c r="D7">
-        <v>14.85066784108841</v>
+        <v>11.35140076970613</v>
       </c>
       <c r="E7">
-        <v>16.26457588663441</v>
+        <v>12.29548001923681</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.662312889218045</v>
+        <v>2.08903442912362</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>22.25819834295054</v>
+        <v>13.07845258600237</v>
       </c>
       <c r="J7">
-        <v>9.351516375294519</v>
+        <v>5.713245494662615</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>25.89545596751487</v>
+        <v>16.87613870382064</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.06566204763628</v>
+        <v>24.04579113200852</v>
       </c>
       <c r="C8">
-        <v>12.384608155216</v>
+        <v>18.8759929203643</v>
       </c>
       <c r="D8">
-        <v>14.92413278850119</v>
+        <v>12.02543742426647</v>
       </c>
       <c r="E8">
-        <v>16.33710566192127</v>
+        <v>13.01098899839307</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.658672544189854</v>
+        <v>2.079210277853359</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>22.03688093776935</v>
+        <v>12.63390791387154</v>
       </c>
       <c r="J8">
-        <v>9.338235130193183</v>
+        <v>5.82884289206403</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>25.75330960409177</v>
+        <v>17.09964432377276</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.64787639085223</v>
+        <v>27.87041323425815</v>
       </c>
       <c r="C9">
-        <v>13.747094482816</v>
+        <v>21.89413124154974</v>
       </c>
       <c r="D9">
-        <v>15.09485854075092</v>
+        <v>13.32020048172828</v>
       </c>
       <c r="E9">
-        <v>16.50884262694824</v>
+        <v>14.39109218326587</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.652232734856398</v>
+        <v>2.060846089954428</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>21.65364489963336</v>
+        <v>11.93666621406584</v>
       </c>
       <c r="J9">
-        <v>9.323911158013463</v>
+        <v>6.078810526543521</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>25.54042825810741</v>
+        <v>17.75715057808619</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.73261872113134</v>
+        <v>30.40541094143785</v>
       </c>
       <c r="C10">
-        <v>14.66871907678343</v>
+        <v>23.89738922449486</v>
       </c>
       <c r="D10">
-        <v>15.23583597741123</v>
+        <v>14.24868203130625</v>
       </c>
       <c r="E10">
-        <v>16.65232616735073</v>
+        <v>15.38440999135268</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.6479225021898</v>
+        <v>2.04780503485394</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>21.40321890588839</v>
+        <v>11.56153764279302</v>
       </c>
       <c r="J10">
-        <v>9.320530652873002</v>
+        <v>6.27685171090078</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>25.42486783426689</v>
+        <v>18.3873786129564</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.20742692627833</v>
+        <v>31.50079383854309</v>
       </c>
       <c r="C11">
-        <v>15.06955078148175</v>
+        <v>24.76380199656538</v>
       </c>
       <c r="D11">
-        <v>15.303174031553</v>
+        <v>14.66532570330942</v>
       </c>
       <c r="E11">
-        <v>16.72119179026204</v>
+        <v>15.83098195656609</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.646052042221716</v>
+        <v>2.041946135404692</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>21.29610008805856</v>
+        <v>11.42867404083554</v>
       </c>
       <c r="J11">
-        <v>9.320541819913313</v>
+        <v>6.370139338305214</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>25.38130392910395</v>
+        <v>18.7085241621801</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.38441982884556</v>
+        <v>31.90743643558793</v>
       </c>
       <c r="C12">
-        <v>15.21860808323015</v>
+        <v>25.08557540765884</v>
       </c>
       <c r="D12">
-        <v>15.32911841946641</v>
+        <v>14.82224140255611</v>
       </c>
       <c r="E12">
-        <v>16.74777060096919</v>
+        <v>15.99929315640461</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.645356649912709</v>
+        <v>2.039735878130962</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>21.25651936309073</v>
+        <v>11.38455383252113</v>
       </c>
       <c r="J12">
-        <v>9.320768430829936</v>
+        <v>6.40593302019562</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>25.36611297818122</v>
+        <v>18.83527014858348</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.34642787758637</v>
+        <v>31.82021877711755</v>
       </c>
       <c r="C13">
-        <v>15.18662842928906</v>
+        <v>25.01655449739488</v>
       </c>
       <c r="D13">
-        <v>15.3235113094289</v>
+        <v>14.78848524630257</v>
       </c>
       <c r="E13">
-        <v>16.74202436465605</v>
+        <v>15.96307998076809</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.645505842054813</v>
+        <v>2.040211561135739</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>21.26499998807578</v>
+        <v>11.39376769028689</v>
       </c>
       <c r="J13">
-        <v>9.320709742324722</v>
+        <v>6.398203249906803</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>25.36932638085261</v>
+        <v>18.80774195236367</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.22204514420692</v>
+        <v>31.53441107822664</v>
       </c>
       <c r="C14">
-        <v>15.08186891844127</v>
+        <v>24.79040030798121</v>
       </c>
       <c r="D14">
-        <v>15.30529967056125</v>
+        <v>14.67825255925104</v>
       </c>
       <c r="E14">
-        <v>16.72336850091619</v>
+        <v>15.8448450707705</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.645994573552299</v>
+        <v>2.04176414159367</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>21.29282403160899</v>
+        <v>11.42491554962664</v>
       </c>
       <c r="J14">
-        <v>9.320556008850014</v>
+        <v>6.373074676427488</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>25.38002793108107</v>
+        <v>18.71884770870465</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.14548819894413</v>
+        <v>31.35828838755798</v>
       </c>
       <c r="C15">
-        <v>15.01734315707313</v>
+        <v>24.6510556844857</v>
       </c>
       <c r="D15">
-        <v>15.29420196424681</v>
+        <v>14.61061950086584</v>
       </c>
       <c r="E15">
-        <v>16.71200598805225</v>
+        <v>15.77231857046907</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.646295614852886</v>
+        <v>2.042716164545083</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>21.30999520553107</v>
+        <v>11.44482464120184</v>
       </c>
       <c r="J15">
-        <v>9.320490791125916</v>
+        <v>6.35774389366517</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>25.38675329947175</v>
+        <v>18.6650713849258</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.70120255456836</v>
+        <v>30.33267515340723</v>
       </c>
       <c r="C16">
-        <v>14.6421459488416</v>
+        <v>23.83987537830258</v>
       </c>
       <c r="D16">
-        <v>15.23149843905149</v>
+        <v>14.22133459247456</v>
       </c>
       <c r="E16">
-        <v>16.64789661928995</v>
+        <v>15.35511533999476</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.648046551709779</v>
+        <v>2.048189224837075</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>21.41035663805035</v>
+        <v>11.57104420420949</v>
       </c>
       <c r="J16">
-        <v>9.320561063935182</v>
+        <v>6.270820091838234</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>25.42789698195424</v>
+        <v>18.3670999489879</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.42377701338887</v>
+        <v>29.6887988645391</v>
       </c>
       <c r="C17">
-        <v>14.40719522770491</v>
+        <v>23.33084123153971</v>
       </c>
       <c r="D17">
-        <v>15.19384191665813</v>
+        <v>13.98102122711976</v>
       </c>
       <c r="E17">
-        <v>16.60947711049441</v>
+        <v>15.09778534942693</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.649143767365882</v>
+        <v>2.051564110872185</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>21.47367044073223</v>
+        <v>11.65867110253546</v>
       </c>
       <c r="J17">
-        <v>9.32100067870169</v>
+        <v>6.218318801715308</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>25.45545160005907</v>
+        <v>18.19326013776968</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.26246037351056</v>
+        <v>29.31300789248952</v>
       </c>
       <c r="C18">
-        <v>14.27032784026053</v>
+        <v>23.03382537880323</v>
       </c>
       <c r="D18">
-        <v>15.17248573603653</v>
+        <v>13.8422607050244</v>
       </c>
       <c r="E18">
-        <v>16.58771854743078</v>
+        <v>14.94927803103943</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.649783359305808</v>
+        <v>2.053512321589038</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>21.51072672251081</v>
+        <v>11.71257825602641</v>
       </c>
       <c r="J18">
-        <v>9.321399357837509</v>
+        <v>6.188421799122536</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>25.47214727632486</v>
+        <v>18.09650485761991</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.20754508307496</v>
+        <v>29.18483081449009</v>
       </c>
       <c r="C19">
-        <v>14.22369245036669</v>
+        <v>22.93252994224688</v>
       </c>
       <c r="D19">
-        <v>15.16530739566928</v>
+        <v>13.79518774212431</v>
       </c>
       <c r="E19">
-        <v>16.58041022184942</v>
+        <v>14.89891200356707</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.65000137668833</v>
+        <v>2.054173229194683</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>21.5233830959201</v>
+        <v>11.73141055269141</v>
       </c>
       <c r="J19">
-        <v>9.321559398599671</v>
+        <v>6.17835058360045</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>25.47794527784745</v>
+        <v>18.06429473234909</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.45349139452215</v>
+        <v>29.75790358432631</v>
       </c>
       <c r="C20">
-        <v>14.43238580130261</v>
+        <v>23.38546592147984</v>
       </c>
       <c r="D20">
-        <v>15.19781928808166</v>
+        <v>14.0066590738408</v>
       </c>
       <c r="E20">
-        <v>16.61353192690682</v>
+        <v>15.12523043895002</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.649026087436216</v>
+        <v>2.051204132452542</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>21.46686432126664</v>
+        <v>11.64897488554464</v>
       </c>
       <c r="J20">
-        <v>9.320938790981764</v>
+        <v>6.223876521541976</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>25.45243062350667</v>
+        <v>18.2114297601731</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.25865645206681</v>
+        <v>31.61857975778032</v>
       </c>
       <c r="C21">
-        <v>15.11271396050524</v>
+        <v>24.85699762666497</v>
       </c>
       <c r="D21">
-        <v>15.31063692818762</v>
+        <v>14.71065401182366</v>
       </c>
       <c r="E21">
-        <v>16.72883471778551</v>
+        <v>15.87959526845892</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.645850671461165</v>
+        <v>2.041307902201026</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>21.28462472147218</v>
+        <v>11.4155922209315</v>
       </c>
       <c r="J21">
-        <v>9.32059513203666</v>
+        <v>6.380442776065004</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>25.37684910496658</v>
+        <v>18.74481733681895</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.76847282771688</v>
+        <v>32.78718503375447</v>
       </c>
       <c r="C22">
-        <v>15.54141335503414</v>
+        <v>25.78197067321275</v>
       </c>
       <c r="D22">
-        <v>15.38695509614587</v>
+        <v>15.16575521783303</v>
       </c>
       <c r="E22">
-        <v>16.80710333544812</v>
+        <v>16.36798093309175</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.643850571094881</v>
+        <v>2.034887812233958</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>21.17125182951938</v>
+        <v>11.29955599554552</v>
       </c>
       <c r="J22">
-        <v>9.321666511332786</v>
+        <v>6.485500032276653</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>25.33506777982641</v>
+        <v>19.12342781405944</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.49791230609589</v>
+        <v>32.16776604258585</v>
       </c>
       <c r="C23">
-        <v>15.31408944316744</v>
+        <v>25.29161125045212</v>
       </c>
       <c r="D23">
-        <v>15.34599165122158</v>
+        <v>14.92332143484388</v>
       </c>
       <c r="E23">
-        <v>16.76506898939043</v>
+        <v>16.10774864343483</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.644911203841045</v>
+        <v>2.038310756905489</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>21.23123499917247</v>
+        <v>11.35787950271317</v>
       </c>
       <c r="J23">
-        <v>9.320976256738726</v>
+        <v>6.429175521471119</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>25.35666699988249</v>
+        <v>18.91855237115997</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.44006318512315</v>
+        <v>29.72667885077437</v>
       </c>
       <c r="C24">
-        <v>14.42100271568232</v>
+        <v>23.36078370633093</v>
       </c>
       <c r="D24">
-        <v>15.19602020441381</v>
+        <v>13.99507007289406</v>
       </c>
       <c r="E24">
-        <v>16.61169771741536</v>
+        <v>15.11282427046359</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.649079263151175</v>
+        <v>2.051366853789971</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>21.46993932365767</v>
+        <v>11.6533476089964</v>
       </c>
       <c r="J24">
-        <v>9.320966315804375</v>
+        <v>6.221362983983923</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>25.45379374704147</v>
+        <v>18.20320535916422</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.23281359871381</v>
+        <v>26.8846352503408</v>
       </c>
       <c r="C25">
-        <v>13.39198239576831</v>
+        <v>21.1157661891506</v>
       </c>
       <c r="D25">
-        <v>15.04588743553761</v>
+        <v>12.97357490462782</v>
       </c>
       <c r="E25">
-        <v>16.45929013211867</v>
+        <v>14.02098759791488</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.653900567625417</v>
+        <v>2.065727270404781</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>21.75186686599839</v>
+        <v>12.10367956906974</v>
       </c>
       <c r="J25">
-        <v>9.326531251081432</v>
+        <v>6.008677549964293</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>25.59089396394387</v>
+        <v>17.55433189943307</v>
       </c>
     </row>
   </sheetData>
